--- a/results/mp/tinybert/toy-spam/confidence/84/stop-words-masking-0.15/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/toy-spam/confidence/84/stop-words-masking-0.15/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="60">
   <si>
     <t>anchor score</t>
   </si>
@@ -46,13 +46,16 @@
     <t>disappointing</t>
   </si>
   <si>
+    <t>poor</t>
+  </si>
+  <si>
+    <t>disappointed</t>
+  </si>
+  <si>
     <t>however</t>
   </si>
   <si>
-    <t>disappointed</t>
-  </si>
-  <si>
-    <t>poor</t>
+    <t>junk</t>
   </si>
   <si>
     <t>waste</t>
@@ -61,27 +64,24 @@
     <t>broke</t>
   </si>
   <si>
-    <t>instead</t>
-  </si>
-  <si>
-    <t>junk</t>
-  </si>
-  <si>
     <t>smaller</t>
   </si>
   <si>
+    <t>guess</t>
+  </si>
+  <si>
     <t>small</t>
   </si>
   <si>
+    <t>broken</t>
+  </si>
+  <si>
     <t>apart</t>
   </si>
   <si>
     <t>cheap</t>
   </si>
   <si>
-    <t>broken</t>
-  </si>
-  <si>
     <t>plastic</t>
   </si>
   <si>
@@ -94,31 +94,28 @@
     <t>size</t>
   </si>
   <si>
+    <t>hard</t>
+  </si>
+  <si>
+    <t>money</t>
+  </si>
+  <si>
     <t>item</t>
   </si>
   <si>
-    <t>hard</t>
+    <t>price</t>
+  </si>
+  <si>
+    <t>would</t>
   </si>
   <si>
     <t>work</t>
   </si>
   <si>
-    <t>would</t>
-  </si>
-  <si>
-    <t>money</t>
-  </si>
-  <si>
-    <t>price</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
     <t>product</t>
   </si>
   <si>
-    <t>2</t>
+    <t>use</t>
   </si>
   <si>
     <t>little</t>
@@ -133,12 +130,12 @@
     <t>negative</t>
   </si>
   <si>
+    <t>awesome</t>
+  </si>
+  <si>
     <t>wonderful</t>
   </si>
   <si>
-    <t>awesome</t>
-  </si>
-  <si>
     <t>favorite</t>
   </si>
   <si>
@@ -160,31 +157,40 @@
     <t>great</t>
   </si>
   <si>
+    <t>friends</t>
+  </si>
+  <si>
     <t>loved</t>
   </si>
   <si>
     <t>perfect</t>
   </si>
   <si>
-    <t>friends</t>
-  </si>
-  <si>
     <t>best</t>
   </si>
   <si>
-    <t>learn</t>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>enjoy</t>
   </si>
   <si>
     <t>christmas</t>
   </si>
   <si>
-    <t>enjoy</t>
-  </si>
-  <si>
     <t>fun</t>
   </si>
   <si>
+    <t>easy</t>
+  </si>
+  <si>
+    <t>family</t>
+  </si>
+  <si>
     <t>game</t>
+  </si>
+  <si>
+    <t>play</t>
   </si>
   <si>
     <t>positive</t>
@@ -545,7 +551,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q32"/>
+  <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -553,10 +559,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -614,13 +620,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0.9565217391304348</v>
       </c>
       <c r="C3">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D3">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -632,19 +638,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K3">
-        <v>0.8928571428571429</v>
+        <v>0.9076923076923077</v>
       </c>
       <c r="L3">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="M3">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -664,37 +670,37 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8863636363636364</v>
+        <v>0.7954545454545454</v>
       </c>
       <c r="C4">
+        <v>35</v>
+      </c>
+      <c r="D4">
+        <v>35</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>9</v>
+      </c>
+      <c r="J4" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D4">
-        <v>39</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4" t="b">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>5</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="K4">
-        <v>0.8615384615384616</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="L4">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="M4">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -706,7 +712,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -714,13 +720,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.703125</v>
+        <v>0.7464788732394366</v>
       </c>
       <c r="C5">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="D5">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -732,19 +738,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K5">
-        <v>0.8172043010752689</v>
+        <v>0.8064516129032258</v>
       </c>
       <c r="L5">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="M5">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -756,7 +762,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -764,13 +770,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.6827956989247311</v>
+        <v>0.6935483870967742</v>
       </c>
       <c r="C6">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D6">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -782,19 +788,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K6">
-        <v>0.734375</v>
+        <v>0.765625</v>
       </c>
       <c r="L6">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="M6">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -806,7 +812,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -814,13 +820,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.676056338028169</v>
+        <v>0.671875</v>
       </c>
       <c r="C7">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D7">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -832,10 +838,10 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K7">
         <v>0.660377358490566</v>
@@ -864,13 +870,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.6351351351351351</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="C8">
-        <v>94</v>
+        <v>35</v>
       </c>
       <c r="D8">
-        <v>94</v>
+        <v>35</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -882,19 +888,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K8">
-        <v>0.5408895265423243</v>
+        <v>0.5451936872309899</v>
       </c>
       <c r="L8">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="M8">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -906,7 +912,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -914,13 +920,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.6262135922330098</v>
+        <v>0.6351351351351351</v>
       </c>
       <c r="C9">
-        <v>129</v>
+        <v>94</v>
       </c>
       <c r="D9">
-        <v>129</v>
+        <v>94</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -932,10 +938,10 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>77</v>
+        <v>54</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K9">
         <v>0.5362318840579711</v>
@@ -964,13 +970,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.6041666666666666</v>
+        <v>0.6067961165048543</v>
       </c>
       <c r="C10">
-        <v>29</v>
+        <v>125</v>
       </c>
       <c r="D10">
-        <v>29</v>
+        <v>125</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -982,19 +988,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>19</v>
+        <v>81</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K10">
-        <v>0.4896265560165975</v>
+        <v>0.4937759336099585</v>
       </c>
       <c r="L10">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="M10">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1006,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1014,13 +1020,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.6</v>
+        <v>0.5462184873949579</v>
       </c>
       <c r="C11">
-        <v>33</v>
+        <v>65</v>
       </c>
       <c r="D11">
-        <v>33</v>
+        <v>65</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1032,19 +1038,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>22</v>
+        <v>54</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K11">
-        <v>0.459016393442623</v>
+        <v>0.4467213114754098</v>
       </c>
       <c r="L11">
-        <v>560</v>
+        <v>545</v>
       </c>
       <c r="M11">
-        <v>560</v>
+        <v>545</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1056,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>660</v>
+        <v>675</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1064,38 +1070,38 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.5630252100840336</v>
+        <v>0.5370370370370371</v>
       </c>
       <c r="C12">
+        <v>29</v>
+      </c>
+      <c r="D12">
+        <v>29</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12" t="b">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>25</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K12">
+        <v>0.3544973544973545</v>
+      </c>
+      <c r="L12">
         <v>67</v>
       </c>
-      <c r="D12">
+      <c r="M12">
         <v>67</v>
       </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12" t="b">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>52</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="K12">
-        <v>0.363914373088685</v>
-      </c>
-      <c r="L12">
-        <v>119</v>
-      </c>
-      <c r="M12">
-        <v>119</v>
-      </c>
       <c r="N12">
         <v>1</v>
       </c>
@@ -1106,7 +1112,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>208</v>
+        <v>122</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1114,13 +1120,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.5101449275362319</v>
+        <v>0.4695652173913044</v>
       </c>
       <c r="C13">
-        <v>176</v>
+        <v>162</v>
       </c>
       <c r="D13">
-        <v>176</v>
+        <v>162</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1132,19 +1138,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>169</v>
+        <v>183</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K13">
-        <v>0.3253012048192771</v>
+        <v>0.3486238532110092</v>
       </c>
       <c r="L13">
-        <v>54</v>
+        <v>114</v>
       </c>
       <c r="M13">
-        <v>54</v>
+        <v>114</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1156,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>112</v>
+        <v>213</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1164,13 +1170,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.4</v>
+        <v>0.4096385542168675</v>
       </c>
       <c r="C14">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D14">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1182,19 +1188,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K14">
-        <v>0.2962962962962963</v>
+        <v>0.3192771084337349</v>
       </c>
       <c r="L14">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="M14">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1206,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>133</v>
+        <v>113</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1214,49 +1220,49 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.3886255924170616</v>
+        <v>0.4</v>
       </c>
       <c r="C15">
+        <v>38</v>
+      </c>
+      <c r="D15">
+        <v>38</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15" t="b">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>57</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K15">
+        <v>0.3166666666666667</v>
+      </c>
+      <c r="L15">
+        <v>38</v>
+      </c>
+      <c r="M15">
+        <v>38</v>
+      </c>
+      <c r="N15">
+        <v>1</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q15">
         <v>82</v>
-      </c>
-      <c r="D15">
-        <v>82</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15" t="b">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>129</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="K15">
-        <v>0.2916666666666667</v>
-      </c>
-      <c r="L15">
-        <v>35</v>
-      </c>
-      <c r="M15">
-        <v>35</v>
-      </c>
-      <c r="N15">
-        <v>1</v>
-      </c>
-      <c r="O15">
-        <v>0</v>
-      </c>
-      <c r="P15" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q15">
-        <v>85</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1264,13 +1270,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.3855421686746988</v>
+        <v>0.3838862559241706</v>
       </c>
       <c r="C16">
-        <v>32</v>
+        <v>81</v>
       </c>
       <c r="D16">
-        <v>32</v>
+        <v>81</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1282,19 +1288,19 @@
         <v>0</v>
       </c>
       <c r="H16">
+        <v>130</v>
+      </c>
+      <c r="J16" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="J16" s="1" t="s">
-        <v>52</v>
-      </c>
       <c r="K16">
-        <v>0.25</v>
+        <v>0.2307692307692308</v>
       </c>
       <c r="L16">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M16">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1306,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>96</v>
+        <v>110</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1335,16 +1341,16 @@
         <v>79</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K17">
-        <v>0.2008032128514056</v>
+        <v>0.1935483870967742</v>
       </c>
       <c r="L17">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="M17">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1356,7 +1362,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>199</v>
+        <v>150</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1364,13 +1370,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.34375</v>
+        <v>0.359375</v>
       </c>
       <c r="C18">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D18">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1382,19 +1388,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K18">
-        <v>0.1774193548387097</v>
+        <v>0.1526104417670683</v>
       </c>
       <c r="L18">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="M18">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1406,7 +1412,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>153</v>
+        <v>211</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1414,13 +1420,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.2623762376237624</v>
+        <v>0.2524752475247525</v>
       </c>
       <c r="C19">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D19">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1432,19 +1438,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K19">
-        <v>0.1411042944785276</v>
+        <v>0.1498685363716039</v>
       </c>
       <c r="L19">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="M19">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1456,7 +1462,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>980</v>
+        <v>970</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1464,13 +1470,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.211340206185567</v>
+        <v>0.2216494845360825</v>
       </c>
       <c r="C20">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D20">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1482,31 +1488,31 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K20">
-        <v>0.07857142857142857</v>
+        <v>0.0855614973262032</v>
       </c>
       <c r="L20">
-        <v>121</v>
+        <v>32</v>
       </c>
       <c r="M20">
-        <v>122</v>
+        <v>32</v>
       </c>
       <c r="N20">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O20">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>1419</v>
+        <v>342</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1514,13 +1520,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.1811594202898551</v>
+        <v>0.175</v>
       </c>
       <c r="C21">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="D21">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1532,7 +1538,31 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>226</v>
+        <v>165</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K21">
+        <v>0.08077994428969359</v>
+      </c>
+      <c r="L21">
+        <v>29</v>
+      </c>
+      <c r="M21">
+        <v>29</v>
+      </c>
+      <c r="N21">
+        <v>1</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>330</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1540,13 +1570,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.175</v>
+        <v>0.1645569620253164</v>
       </c>
       <c r="C22">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="D22">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1558,7 +1588,31 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>165</v>
+        <v>264</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K22">
+        <v>0.07667316439246263</v>
+      </c>
+      <c r="L22">
+        <v>118</v>
+      </c>
+      <c r="M22">
+        <v>120</v>
+      </c>
+      <c r="N22">
+        <v>0.98</v>
+      </c>
+      <c r="O22">
+        <v>0.02000000000000002</v>
+      </c>
+      <c r="P22" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q22">
+        <v>1421</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1566,25 +1620,49 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.1619047619047619</v>
+        <v>0.1630434782608696</v>
       </c>
       <c r="C23">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="D23">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="E23">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="F23">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="G23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H23">
-        <v>264</v>
+        <v>231</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="K23">
+        <v>0.05059920106524634</v>
+      </c>
+      <c r="L23">
+        <v>38</v>
+      </c>
+      <c r="M23">
+        <v>39</v>
+      </c>
+      <c r="N23">
+        <v>0.97</v>
+      </c>
+      <c r="O23">
+        <v>0.03000000000000003</v>
+      </c>
+      <c r="P23" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q23">
+        <v>713</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1592,25 +1670,25 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.1587537091988131</v>
+        <v>0.1556195965417868</v>
       </c>
       <c r="C24">
-        <v>107</v>
+        <v>54</v>
       </c>
       <c r="D24">
-        <v>107</v>
+        <v>55</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H24">
-        <v>567</v>
+        <v>293</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1618,25 +1696,25 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.1582278481012658</v>
+        <v>0.150297619047619</v>
       </c>
       <c r="C25">
-        <v>50</v>
+        <v>101</v>
       </c>
       <c r="D25">
-        <v>50</v>
+        <v>103</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H25">
-        <v>266</v>
+        <v>571</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1644,13 +1722,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.1551724137931035</v>
+        <v>0.1455696202531646</v>
       </c>
       <c r="C26">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="D26">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1662,7 +1740,7 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>294</v>
+        <v>270</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1670,25 +1748,25 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.1355140186915888</v>
+        <v>0.1258278145695364</v>
       </c>
       <c r="C27">
-        <v>29</v>
+        <v>57</v>
       </c>
       <c r="D27">
-        <v>29</v>
+        <v>58</v>
       </c>
       <c r="E27">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H27">
-        <v>185</v>
+        <v>396</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1696,13 +1774,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.118942731277533</v>
+        <v>0.0958904109589041</v>
       </c>
       <c r="C28">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="D28">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1714,7 +1792,7 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>400</v>
+        <v>330</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -1722,25 +1800,25 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.1161048689138577</v>
+        <v>0.08482142857142858</v>
       </c>
       <c r="C29">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="D29">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="E29">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="F29">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="G29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H29">
-        <v>236</v>
+        <v>410</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -1748,13 +1826,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.07829977628635347</v>
+        <v>0.066006600660066</v>
       </c>
       <c r="C30">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D30">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="E30">
         <v>0.05</v>
@@ -1766,7 +1844,7 @@
         <v>1</v>
       </c>
       <c r="H30">
-        <v>412</v>
+        <v>566</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -1774,51 +1852,25 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.0642504118616145</v>
+        <v>0.04309252217997465</v>
       </c>
       <c r="C31">
+        <v>34</v>
+      </c>
+      <c r="D31">
         <v>39</v>
       </c>
-      <c r="D31">
-        <v>40</v>
-      </c>
       <c r="E31">
-        <v>0.03</v>
+        <v>0.13</v>
       </c>
       <c r="F31">
-        <v>0.97</v>
+        <v>0.87</v>
       </c>
       <c r="G31" t="b">
         <v>1</v>
       </c>
       <c r="H31">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17">
-      <c r="A32" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B32">
-        <v>0.04447268106734435</v>
-      </c>
-      <c r="C32">
-        <v>35</v>
-      </c>
-      <c r="D32">
-        <v>42</v>
-      </c>
-      <c r="E32">
-        <v>0.17</v>
-      </c>
-      <c r="F32">
-        <v>0.83</v>
-      </c>
-      <c r="G32" t="b">
-        <v>1</v>
-      </c>
-      <c r="H32">
-        <v>752</v>
+        <v>755</v>
       </c>
     </row>
   </sheetData>
